--- a/Documentation/Trace Matrices/Travis - Trace Matrix.xlsx
+++ b/Documentation/Trace Matrices/Travis - Trace Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projects\Repos\TeamTeam\Documentation\Trace Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B1AAE-B7B1-4035-BA12-F627DEB03C22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172D252-8506-4A9E-B15B-88A735136891}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>Feature/User Story</t>
   </si>
@@ -48,27 +48,15 @@
     <t>Lines</t>
   </si>
   <si>
-    <t>The Hud displays current health.</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
     <t>../game/src</t>
   </si>
   <si>
-    <t>Font for the HUD.</t>
-  </si>
-  <si>
     <t>Entire File</t>
   </si>
   <si>
-    <t>Texture for bullet, AP</t>
-  </si>
-  <si>
-    <t>Audio Packer</t>
-  </si>
-  <si>
     <t>Travis</t>
   </si>
   <si>
@@ -160,6 +148,12 @@
   </si>
   <si>
     <t>All of them</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>All of it</t>
   </si>
 </sst>
 </file>
@@ -191,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -290,21 +284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -338,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -368,9 +347,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,26 +629,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="2"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -696,408 +672,417 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
